--- a/loaded_influencer_data/jade_edgington/jade_edgington_video.xlsx
+++ b/loaded_influencer_data/jade_edgington/jade_edgington_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7433748691279711521</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123900</v>
+        <v>126500</v>
       </c>
       <c r="C2" t="n">
-        <v>4482</v>
+        <v>4536</v>
       </c>
       <c r="D2" t="n">
         <v>69</v>
@@ -524,27 +524,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1151</v>
+        <v>1173</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>글로리 스킨케어는 최고의 스킨케어입니다! ✨ @Caudalie #skincare #glowyskin #glowyskincare #caudalie</t>
+          <t>Glowy skincare is the best kind of skincare! @Caudalie ✨
+#skincare #glowyskin #glowyskincare #caudalie</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.673123486682809</v>
+        <v>3.640316205533597</v>
       </c>
       <c r="I2" t="n">
-        <v>3.617433414043583</v>
+        <v>3.585770750988142</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05569007263922518</v>
+        <v>0.05454545454545455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9289749798224374</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,13 +559,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7444142196971949344</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710200</v>
+        <v>710300</v>
       </c>
       <c r="C3" t="n">
         <v>22700</v>
@@ -580,23 +581,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>축제 입술 콤보 ✨ @Kylie Cosmetics #lipcombo #redlipcombo #kyliecosmetics #lipproducts #ugcbeauty</t>
+          <t>@Kylie Cosmetics festive lip combo ✨
+#lipcombo #redlipcombo #kyliecosmetics #lipproducts #ugcbeauty</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.233173753872149</v>
+        <v>3.232718569618471</v>
       </c>
       <c r="I3" t="n">
-        <v>3.196282737257111</v>
+        <v>3.195832746726735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03689101661503802</v>
+        <v>0.03688582289173589</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1137707687975218</v>
+        <v>0.113754751513445</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,7 +612,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7438259033619844384</t>
         </is>
@@ -632,7 +634,8 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>마지막으로 바이럴 블랙 허니 립 오일 시도 ✨ @Clinique UK #blackhoneyclinique #blackhoneylipoil #clinique</t>
+          <t>Finally trying the viral @Clinique UK black honey lip oil ✨
+#blackhoneyclinique #blackhoneylipoil #clinique</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -662,169 +665,174 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7488665107539561750</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hands down the best mascara combo I’ve found for short, straight lashes!
+@REFY
+@UKLASH
+#mascara</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.889409559512652</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.139643861293346</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7497656982193065</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1874414245548266</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7488298246020795670</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1299</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@VIEVE Sunset Balm ❤️‍🔥
+#blush #vieve #vieveblush #makeup #ugcbeauty #beautycontentcreator</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.775211701308699</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.234795996920708</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.54041570438799</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07698229407236336</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7487926151034277142</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7405</v>
+      </c>
+      <c r="C7" t="n">
+        <v>116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>@PINKHONEY brows&gt;&gt;
+#pinkhoney #pinkhoneybrows #fluffybrows #browproducts #makeup #ugcbeauty</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1.809588116137745</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.566509115462525</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2430790006752195</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.05401755570560432</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7486575347836734742</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>777</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>그만한 가치가 있는 럭셔리 뷰티 제품✨ 프로 콜라겐 클렌징 밤 광고 @ELEMIS UKI #elemis #elemiscleansingbalm</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6.692406692406692</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.861003861003861</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.831402831402832</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2574002574002574</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7486083323928923414</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>708</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>다음을 사용하여 들어 올린 광대뼈 해킹: 홍당무 브론저 컨실러 @VIEVE @LUMENE @Kosas #liftedcheeks #cheeklift</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8.757062146892656</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.649717514124294</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.107344632768362</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2824858757062147</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7485339326855908630</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3006</v>
-      </c>
-      <c r="C7" t="n">
-        <v>94</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>새로운 베어프로 24시간 스킨 퍼펙팅 프레스 파우더 파운데이션은 필수입니다! @bareMinerals @Community X SEEN</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3.825681969394544</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.127079174983367</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6986027944111777</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2994011976047904</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7484961898484485398</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>5430</v>
+        <v>2618</v>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -834,1094 +842,1102 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>The Luxary Beauty Product thats worth it ✨
+@ELEMIS UKI Pro Collagen Cleansing Balm
+Ad
+#elemis</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3.132161955691368</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.871657754010695</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.260504201680672</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1145912910618793</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7486083323928923414</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>823</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lifted cheekbones hack using:
+@VIEVE blush
+@LUMENE Bronzer
+@Kosas Concealer
+#liftedcheeks #cheeklift</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8.140947752126367</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.224787363304982</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.916160388821385</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2430133657351154</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7485339326855908630</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4169</v>
+      </c>
+      <c r="C10" t="n">
+        <v>107</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>@bareMinerals NEW BarePro 24hr skin Perfecting Pressed Powder Foundation is a MUST!
+@Community X SEEN</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3.094267210362197</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.56656272487407</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5277044854881267</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3358119453106261</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7484961898484485398</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C11" t="n">
+        <v>74</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>뷰티 블렌더 vs 파우더 퍼프를 사용하여 프레스 파우더 적용 파우더 @Charlotte Tilbury #pressedpowder #powder</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>1.47329650092081</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>1.36279926335175</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.1104972375690608</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>0.05524861878453039</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7484221240480107798</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>5002</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>104</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>테디 틴트 - 가장 예쁘다 🌸 @MaybellineUK #maybelline #maybellineteddytint #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>2.678928428628549</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>2.079168332666933</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.5997600959616154</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>0.2399040383846461</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7483845374482992406</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>1904</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>113</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>컨실러를 사용하여 얼굴을 들어 올리는 두 가지 방법 #concealer #concealerhack #concealerfacelift</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>7.03781512605042</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>5.934873949579831</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.102941176470588</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.4201680672268908</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7482487369887911190</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>1543</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>79</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>29</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>광고. 이것은 MyDyson ™ 앱을 사용해 보라는 신호입니다! 헤어 게임을 업그레이드하는 것은 새로운 에어랩 아이디 ™로 매우 쉽습니다!✨ 제휴 링크:https://imp.i256749.net/APEPeo</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>6.999351911860013</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>5.119896305897602</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.879455605962411</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>0.4536616979909268</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7482371399940689174</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>621</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>64</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>26</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>스모키 이탈리안 아이 전환 모든 제품 사용 @KIKO Milano #smokeyeyelook #smokeyitalianeye #makeup</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>14.49275362318841</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>10.30595813204509</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.186795491143317</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.322061191626409</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7481256582462950678</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>10300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>207</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>뷰티 블렌더로 브론저 바르기 vs 브러시 브론저 @No7 #bronzer #makeuptools #beautyblender #bronzerbrush</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>2.12621359223301</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>2.009708737864078</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.116504854368932</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.08737864077669903</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7480878769293577494</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>9212</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>189</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>38</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>17</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>퍼펙트 글로리 베이스 드림빔 SPF30 @Kosas #kosas #sunscreen #glowybase #glowymakeup #makeup</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>2.464177160225792</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>2.051671732522796</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.4125054277029961</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.1845419018671298</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7479032697319607574</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>706</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>77</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>21</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>이 트렌드를 사랑 🖤 @MOTEL #motelrocks #fashion</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>13.88101983002833</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>10.90651558073654</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.974504249291785</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.56657223796034</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7478282677930495254</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>1501</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>77</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>이 트렌드를 사랑 🖤 @MOTEL #motelrocks #fashion</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>6.528980679546968</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>5.129913391072619</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.39906728847435</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.2664890073284477</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7477917464291052822</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>19600</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>89</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>39</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>7</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Spring lip combo 🌸 @Saie @thebeautycrop #springlipcombo #lipcombo #pinklipcombo #makeup #ugcbeauty #beautycontentcreator</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>0.653061224489796</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>0.4540816326530612</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.1989795918367347</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>0.03571428571428571</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7476799722863201558</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>1144</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>142</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>31</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>10</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>스프링 립 콤보 🌸 @Saie @thebeautycrop #springlipcombo #lipcombo #pinklipcombo #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>15.12237762237762</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>12.41258741258741</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.70979020979021</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>0.8741258741258742</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7476428652855561494</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>811</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>66</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>19</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>@Charlotte Tilbury vs @REFY concealer #concealer #concealerreview #makeup #ugcbeauty #beautycontentcreator</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>10.48088779284834</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>8.138101109741061</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.342786683107275</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.3699136868064118</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7475314510325206294</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>9688</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>47</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>28</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>눈썹은 다음을 사용하여 눈썹을 그립니다. @Ardell UK #fluffybrows #browproducts</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>0.7741535920726672</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>0.4851362510322048</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.2890173410404624</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>0.05161023947151114</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7474569764451437846</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>9624</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>188</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>33</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>페이스 리프트 대 아이 리프트를 위한 컨실러 배치 컨실러 @KIKO Milano #concealertips #concealerhack</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>2.182044887780549</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>1.953449709060681</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.228595178719867</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.3428927680798005</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7474199518305651990</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>3827</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>153</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>25</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>펜슬 라이너 vs 리퀴드 라이너 @Profusion Cosmetics UK @Pixi Beauty #eyeliner #liquidliner #pencilliner</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>4.651162790697675</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>3.99790958975699</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.6532532009406846</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.1567807682257643</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7473458546466753814</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>2301</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>130</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>32</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>11</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>가장 예쁜 립 콤보 🎀 @YSL Beauty @Kylie Cosmetics #lipcombo #pinklipcombo #makeup #lipproducts</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>7.040417209908735</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>5.649717514124294</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.390699695784442</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.4780530204259018</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7473089467893533974</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>6904</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>107</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>23</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>약국 vs 비약국 세팅 파우더 @Sleek Make-up Store @REFY #settingpowder #makeupdrugstore #refy #makeup</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>1.882966396292005</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>1.549826187717265</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.3331402085747393</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.05793742757821552</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7472715188437830934</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>1014</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>168</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>45</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>12</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>노화의 징후를 물리치는 새로운 프리미어 크루 🍇 @Caudalie #caudalie #caudalieskincare #skincare</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>21.00591715976331</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>16.56804733727811</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>4.437869822485207</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>1.183431952662722</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7472344811350101271</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>1574</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>83</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>31</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>궁극의 글로우 블러셔 콤보 🎀✨ @VIEVE #vieve #vievemakeup #glowymakeup #beauty #ugcbeauty #ugccreator</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>7.242693773824651</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>5.273189326556544</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.969504447268107</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.1905972045743329</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7472060453280075030</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>524</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>87</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>궁극의 글로우 블러셔 콤보 🎀✨ @VIEVE #vieve #vievemakeup #glowymakeup #beauty #ugcbeauty #ugccreator</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>21.37404580152672</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16.6030534351145</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.770992366412214</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.526717557251908</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7471315838159588630</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3625</v>
-      </c>
-      <c r="C28" t="n">
-        <v>55</v>
-      </c>
-      <c r="D28" t="n">
-        <v>22</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>빛나는 시간 마무리 ✨ @glossic_official #glossic #glowymakeup #glowyskin #beauty</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2.124137931034483</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.517241379310345</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.6068965517241379</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1103448275862069</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7471240911041694998</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>737</v>
-      </c>
-      <c r="C29" t="n">
-        <v>79</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>마미 와타로 빛나다✨ @EADEM #eadem #hydratingfacemist #skincare #glowyskincare</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>12.48303934871099</v>
-      </c>
-      <c r="I29" t="n">
-        <v>10.719131614654</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.763907734056988</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.6784260515603799</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7470862047614373142</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2129</v>
-      </c>
-      <c r="C30" t="n">
-        <v>64</v>
       </c>
       <c r="D30" t="n">
         <v>25</v>
@@ -1930,351 +1946,351 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>궁극의 글로우 블러셔 콤보 🎀✨ @VIEVE #vieve #vievemakeup #glowymakeup #beauty #ugcbeauty #ugccreator</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>21.37404580152672</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16.6030534351145</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.770992366412214</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.526717557251908</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7471315838159588630</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3625</v>
+      </c>
+      <c r="C31" t="n">
+        <v>55</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>빛나는 시간 마무리 ✨ @glossic_official #glossic #glowymakeup #glowyskin #beauty</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2.124137931034483</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.517241379310345</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6068965517241379</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7471240911041694998</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>737</v>
+      </c>
+      <c r="C32" t="n">
+        <v>79</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>마미 와타로 빛나다✨ @EADEM #eadem #hydratingfacemist #skincare #glowyskincare</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>12.48303934871099</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.719131614654</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.763907734056988</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6784260515603799</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7470862047614373142</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2129</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>7</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>✨와 함께하는 일상룩 광고 @glossic_official #glossic #makeup #everdaylook #everydaymakeup #beauty</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>4.180366369187412</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>3.006106153123532</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.17426021606388</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.3287928604978863</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7469748413597224224</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>9340</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>122</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>45</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>12</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>✨와 함께하는 일상룩 광고 @glossic_official #glossic #makeup #everdaylook #everydaymakeup #beauty</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>1.788008565310492</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>1.306209850107066</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.4817987152034261</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.1284796573875803</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7468639435446340897</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>5546</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>169</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>35</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>24</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>언더아이 vs 리프트를 밝게 하는 컨실러 배치 @REFY #concealer #concealertips #concealerplacement #makeuptips</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>3.678326721961774</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>3.047241254958529</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.6310854670032456</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.432744320230797</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7468034048263310625</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>978</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>106</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>24</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>9</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>2개의 바이럴 파운데이션 슈퍼스테이와 발광 실크 비교 @MaybellineUK @Armani beauty #foundation</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>13.29243353783231</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>10.83844580777096</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.45398773006135</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.9202453987730062</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-07</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7467883878292671777</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>5575</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>99</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>34</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>🖤✨ 영재 @MOTEL #motelrocks #motel #fashion #outfitinspo #contentcreators</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2.385650224215246</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.775784753363229</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.6098654708520179</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.05381165919282511</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7467657009903537441</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>749</v>
-      </c>
-      <c r="C35" t="n">
-        <v>135</v>
-      </c>
-      <c r="D35" t="n">
-        <v>23</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>바이럴 스킨 틴트 유무 레이어링 @Kylie Cosmetics #kyliecosmetics #powderfoundation #skintint</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>21.09479305740988</v>
-      </c>
-      <c r="I35" t="n">
-        <v>18.02403204272363</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.070761014686248</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.801068090787717</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7467567952288566560</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>769</v>
-      </c>
-      <c r="C36" t="n">
-        <v>56</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>의상이 계획대로 될 때!✨🥂 영재 @MOTEL #motelrocks #fashion #clothes #contentcreator</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8.712613784135241</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.282184655396619</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.430429128738621</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.2600780234070221</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7466410145967328544</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1904</v>
-      </c>
-      <c r="C37" t="n">
-        <v>55</v>
-      </c>
-      <c r="D37" t="n">
-        <v>23</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2284,680 +2300,730 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>🖤✨ 영재 @MOTEL #motelrocks #motel #fashion #outfitinspo #contentcreators</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2.385650224215246</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.775784753363229</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6098654708520179</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.05381165919282511</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7467657009903537441</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>749</v>
+      </c>
+      <c r="C38" t="n">
+        <v>135</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>바이럴 스킨 틴트 유무 레이어링 @Kylie Cosmetics #kyliecosmetics #powderfoundation #skintint</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>21.09479305740988</v>
+      </c>
+      <c r="I38" t="n">
+        <v>18.02403204272363</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.070761014686248</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.801068090787717</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7467567952288566560</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>769</v>
+      </c>
+      <c r="C39" t="n">
+        <v>56</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>의상이 계획대로 될 때!✨🥂 영재 @MOTEL #motelrocks #fashion #clothes #contentcreator</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8.712613784135241</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.282184655396619</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.430429128738621</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.2600780234070221</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jade_edgington/video/7466410145967328544</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C40" t="n">
+        <v>55</v>
+      </c>
+      <c r="D40" t="n">
+        <v>23</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>병에 담긴 럭셔리 ✨ @evidensdebeaute #evidensdebeaute #skincare #luxuryskincare #beauty #ugcbeauty</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>4.096638655462185</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>2.888655462184874</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.207983193277311</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.157563025210084</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7466037450280848673</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>554200</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>91</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>14</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>4</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>아이라이너 해킹에 마스카라 사용 🤎 @Sculpted by Aimee UK #makeuphacks #makeuptips #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>0.01894622879826777</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>0.01642006495849874</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.002526163839769037</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>0.0007217610970768675</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7465674793711422752</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>105600</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>2861</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>70</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>212</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>로 빛나다 ✨ @St Moriz #stmoritz #glowyskin #glowymakeup #ugcbeauty #beautycontentcreator</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>2.775568181818182</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>2.709280303030303</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.0662878787878788</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.2007575757575757</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7464923619102051616</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>1885</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>2089</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>32</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>216</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2개의 바이럴 파운데이션 비교 헤일로 글로우 슈퍼스테이 @elfcosmetics @MaybellineUK #foundation</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>112.5198938992042</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>110.8222811671088</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.697612732095491</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>11.45888594164456</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7463811267849882912</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>746</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>127</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>43</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>10</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>새로운 얼굴 스컬트와 클렌저 시도 ✨ @REFY #refybeauty #refyskincare #refyproducts #skincare #ugcbeauty</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>22.78820375335121</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>17.02412868632708</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>5.764075067024129</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>1.340482573726542</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7462696310374812960</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>978</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>69</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>28</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>새로운 멋진 얼굴이 💗 AD @glossic_official #blush #glossic #blushproducts #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>9.918200408997956</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>7.05521472392638</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.862985685071575</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>0.5112474437627812</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7462322363904970017</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>7496</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>89</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>30</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>얼굴이 붉어지는 프로스트 시도 @PINKHONEY #pinkhoney #pinkhoneyblush #blush #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>1.587513340448239</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>1.187299893276414</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.4002134471718249</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.04002134471718249</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7461956073990262048</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>14300</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>203</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>27</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>워터라인에 브라운 vs 블랙 아이라이너 @Pixi Beauty #eyeliner #pixi #pixibeauty #eyelinertips #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>1.608391608391608</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>1.41958041958042</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1888111888111888</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.05594405594405594</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7461651455938743585</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>1692</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>233</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>32</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>워터라인에 브라운 vs 블랙 아이라이너 @Pixi Beauty #eyeliner #pixi #pixibeauty #eyelinertips #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>15.66193853427896</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>13.77068557919622</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>1.891252955082742</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>1.122931442080378</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7460096272280685857</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>1090</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>116</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>22</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>9</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>글로시바운스 립오일 시도 ✨ @Saie #saie #lipoil #lipproducts #makeup #ugcbeauty #beautycontentcreator</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>12.6605504587156</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>10.64220183486239</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.018348623853211</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.8256880733944955</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7459735416980213025</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>942</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>101</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>34</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>6</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>젤 립 라이너와 블랙 허니 브라운 립 콤보 사용 @Kylie Cosmetics @Clinique UK #lipcombo #brownlipcombo</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>14.3312101910828</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>10.72186836518047</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.609341825902336</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.6369426751592357</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jade_edgington/video/7458987030660255008</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>13700</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>52</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>핑크 세팅 파우더 vs 반투명 세팅 파우더 @thebeautycrop @REFY #settingpowder #makeup #ugcbeauty</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>0.4817518248175183</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>0.3795620437956204</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1021897810218978</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.0145985401459854</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7457875178811428128</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4717</v>
-      </c>
-      <c r="C49" t="n">
-        <v>326</v>
-      </c>
-      <c r="D49" t="n">
-        <v>25</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>눈썹 루틴 🪶 @REFY #refy #refybrows #refyproducts #makeup #brows #ugcbeauty #beautycontentcreator</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7.441170235319058</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.911172355310578</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.52999788000848</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.3603985584057664</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jade_edgington/video/7457505814589230369</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2292</v>
-      </c>
-      <c r="C50" t="n">
-        <v>115</v>
-      </c>
-      <c r="D50" t="n">
-        <v>19</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>드러그스토어 vs 비 드러그스토어 블러셔 @MaybellineUK @Anastasia Beverly Hills #blush #blushtips #makeup</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5.846422338568935</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.017452006980803</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.8289703315881327</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3926701570680628</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
         </is>
       </c>
     </row>
